--- a/Data/EC/NIT-9001735473.xlsx
+++ b/Data/EC/NIT-9001735473.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DF74DFC-42C9-4430-BADD-61FABE0109C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7126EC3F-5472-4690-A286-43C6F44EC266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C872746B-340E-4601-BC39-6045FD76886F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC2A4CA7-8A87-457E-B0F1-830304194C22}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,94 +71,94 @@
     <t>PEDRO LUIS RAMOS SALGUEDO</t>
   </si>
   <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
     <t>1802</t>
   </si>
   <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
     <t>1072522889</t>
   </si>
   <si>
     <t>ADRIANA PAOLA PINEDO BELTRAN</t>
   </si>
   <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
     <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -202,7 +202,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,7 +257,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -270,9 +272,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -472,23 +472,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,10 +516,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,7 +572,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD20D73-4E0D-E793-07FC-402E43F60952}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A6F841-B6D1-92E2-0120-237A3D772E52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -923,28 +923,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342FE711-5F8E-432B-8440-C95F74C56ADD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3AF96B-0263-44A3-A511-7EC86CD9BB41}">
   <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -957,7 +957,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -968,7 +968,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -979,7 +979,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -990,8 +990,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
@@ -1006,8 +1006,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1022,8 +1022,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
@@ -1038,8 +1038,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>44</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1248,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1340,7 +1340,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1515,16 +1515,16 @@
         <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>35200</v>
+        <v>48000</v>
       </c>
       <c r="G34" s="18">
-        <v>2200000</v>
+        <v>1200000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1541,13 +1541,13 @@
         <v>48000</v>
       </c>
       <c r="G35" s="18">
-        <v>2200000</v>
+        <v>1200000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1564,13 +1564,13 @@
         <v>48000</v>
       </c>
       <c r="G36" s="18">
-        <v>2200000</v>
+        <v>1200000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1587,13 +1587,13 @@
         <v>48000</v>
       </c>
       <c r="G37" s="18">
-        <v>2200000</v>
+        <v>1200000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1610,13 +1610,13 @@
         <v>48000</v>
       </c>
       <c r="G38" s="18">
-        <v>2200000</v>
+        <v>1200000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1633,13 +1633,13 @@
         <v>48000</v>
       </c>
       <c r="G39" s="18">
-        <v>2200000</v>
+        <v>1200000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1656,13 +1656,13 @@
         <v>48000</v>
       </c>
       <c r="G40" s="18">
-        <v>2200000</v>
+        <v>1200000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1679,13 +1679,13 @@
         <v>48000</v>
       </c>
       <c r="G41" s="18">
-        <v>2200000</v>
+        <v>1200000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1702,13 +1702,13 @@
         <v>48000</v>
       </c>
       <c r="G42" s="18">
-        <v>2200000</v>
+        <v>1200000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="21" t="s">
         <v>8</v>
       </c>
@@ -1722,16 +1722,16 @@
         <v>40</v>
       </c>
       <c r="F43" s="24">
-        <v>48000</v>
+        <v>35200</v>
       </c>
       <c r="G43" s="24">
-        <v>2200000</v>
+        <v>1200000</v>
       </c>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="26"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="32" t="s">
         <v>50</v>
       </c>
@@ -1742,7 +1742,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="32" t="s">
         <v>49</v>
       </c>

--- a/Data/EC/NIT-9001735473.xlsx
+++ b/Data/EC/NIT-9001735473.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7126EC3F-5472-4690-A286-43C6F44EC266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5273261C-5789-4D2C-B398-72D41D56053A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC2A4CA7-8A87-457E-B0F1-830304194C22}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B200D33F-2F02-4667-8B0D-8298EA20F367}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -257,9 +257,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -272,7 +270,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -466,29 +466,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,19 +507,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,7 +578,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A6F841-B6D1-92E2-0120-237A3D772E52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C752F9A4-13EB-71AE-16DB-88A2EC42C853}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -923,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3AF96B-0263-44A3-A511-7EC86CD9BB41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B88831C-C817-44E1-BAE9-3501CDAF5095}">
   <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -946,49 +952,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -996,7 +1002,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9001735473</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1907200</v>
       </c>
@@ -1097,18 +1103,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>80000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>2000000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1120,18 +1126,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>80000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>2000000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1143,18 +1149,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>80000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>2000000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1166,18 +1172,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>80000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>2000000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1189,18 +1195,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>80000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>2000000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1212,18 +1218,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>80000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>2000000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1235,18 +1241,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>80000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>2000000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1258,18 +1264,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>80000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>2000000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1281,18 +1287,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>80000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>2000000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1304,18 +1310,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>80000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>2000000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1327,18 +1333,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>80000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>2000000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1350,18 +1356,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>80000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>2000000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1373,18 +1379,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>80000</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>2000000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1396,18 +1402,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>80000</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>2000000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1419,18 +1425,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>80000</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>2000000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1442,18 +1448,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>80000</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>2000000</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1465,18 +1471,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>80000</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>2000000</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1488,18 +1494,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>80000</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>2000000</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1511,18 +1517,18 @@
       <c r="D34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>48000</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>1200000</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1534,18 +1540,18 @@
       <c r="D35" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>48000</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>1200000</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1557,18 +1563,18 @@
       <c r="D36" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>48000</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>1200000</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1580,18 +1586,18 @@
       <c r="D37" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>48000</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>1200000</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1603,18 +1609,18 @@
       <c r="D38" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>48000</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="19">
         <v>1200000</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1626,18 +1632,18 @@
       <c r="D39" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>48000</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>1200000</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1649,18 +1655,18 @@
       <c r="D40" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>48000</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>1200000</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1672,18 +1678,18 @@
       <c r="D41" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>48000</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="19">
         <v>1200000</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1695,47 +1701,47 @@
       <c r="D42" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>48000</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="19">
         <v>1200000</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="22" t="s">
+      <c r="B43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="26">
         <v>35200</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="26">
         <v>1200000</v>
       </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="28"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="32"/>
+      <c r="C48" s="34"/>
       <c r="H48" s="1" t="s">
         <v>50</v>
       </c>
@@ -1743,10 +1749,10 @@
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="32"/>
+      <c r="C49" s="34"/>
       <c r="H49" s="1" t="s">
         <v>51</v>
       </c>
